--- a/Documentação/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
+++ b/Documentação/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando Brandão\OneDrive\_Operacional\Op_Aulas\2019-1\Pesquisa e Inovação GF 1o Semestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SensSolutions\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{2316806C-E9E2-4C7F-9B14-7356390A0B36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3DB9B219-7264-4484-B311-207CFAA5E4E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76C4626-11BC-487A-A1D7-7444C1099E79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="503" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="128">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -159,12 +159,6 @@
     <t xml:space="preserve">Caso de Teste: </t>
   </si>
   <si>
-    <t>\\moveserver03\Util\20080313_teste</t>
-  </si>
-  <si>
-    <t>\\moveserver03\Util\20080313</t>
-  </si>
-  <si>
     <t>Objetos</t>
   </si>
   <si>
@@ -255,54 +249,6 @@
     <t>Premissas (se necessário)</t>
   </si>
   <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nome do Responsável</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Data para concluir a atividade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>Checklist de Funcionalidades - Critérios de Aceitação</t>
   </si>
   <si>
@@ -333,9 +279,6 @@
     <t>Permitir a digitação do login (email) e senha + botão (Login) para autenticar usuário no sistema.</t>
   </si>
   <si>
-    <t>Usuário Autenticado e direcionado para a tela XXXX</t>
-  </si>
-  <si>
     <t>RF002-02</t>
   </si>
   <si>
@@ -366,9 +309,6 @@
     <t xml:space="preserve">Consistir o campo "Senha" com dados válidos	</t>
   </si>
   <si>
-    <t>XXXX</t>
-  </si>
-  <si>
     <t>Login.js</t>
   </si>
   <si>
@@ -450,16 +390,49 @@
     <t>Voltar para página principal do Site</t>
   </si>
   <si>
-    <t>Nome do Analista Desenvolvedor</t>
-  </si>
-  <si>
-    <t>Nome de quem efetuará os testes/Homologação</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data da homologação : </t>
   </si>
   <si>
     <t>Local Git</t>
+  </si>
+  <si>
+    <t>SenSolutions</t>
+  </si>
+  <si>
+    <t>Fernando Brandão</t>
+  </si>
+  <si>
+    <t>Fernando Oliveira</t>
+  </si>
+  <si>
+    <t>Concluído</t>
+  </si>
+  <si>
+    <t>Luis Fernando</t>
+  </si>
+  <si>
+    <t>Usuário Autenticado e direcionado para a tela Dashboard do Sistema</t>
+  </si>
+  <si>
+    <t>Testado - OK</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>Sensolutions</t>
+  </si>
+  <si>
+    <t>Fernando Analista Desenvolvedor</t>
+  </si>
+  <si>
+    <t>http://sensolutions.azurewebsites.net/login.html</t>
+  </si>
+  <si>
+    <t>http://sensolutions.azurewebsites.net/register.html</t>
+  </si>
+  <si>
+    <t>Fernando Oliveira, Luis Fernando , Eduardo Henrique , Diego Dutrar , Paulo Chucon</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1010,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1061,16 +1034,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1079,15 +1052,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1100,11 +1070,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1134,11 +1103,11 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1151,7 +1120,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1">
@@ -1163,14 +1132,14 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1190,17 +1159,17 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1225,10 +1194,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1245,14 +1214,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1260,7 +1229,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1278,14 +1247,82 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1306,91 +1343,7 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1412,7 +1365,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1420,6 +1373,23 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="12" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1624,7 +1594,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="11601450" y="4872744"/>
+          <a:off x="11593286" y="7749294"/>
           <a:ext cx="1019175" cy="817925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1970,616 +1940,674 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.7265625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="16.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="16.453125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.54296875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.54296875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.54296875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.54296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="32.26953125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="16.453125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="11.7265625" style="2"/>
+    <col min="1" max="1" width="1.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="16.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="16.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="32.28515625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="11.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="22" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="53"/>
-    </row>
-    <row r="2" spans="1:20" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="77" t="s">
+    <row r="1" spans="1:20" s="16" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="51"/>
+    </row>
+    <row r="2" spans="1:20" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="51"/>
+      <c r="B2" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="53"/>
-    </row>
-    <row r="3" spans="1:20" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="53"/>
-    </row>
-    <row r="4" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="61" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="51"/>
+    </row>
+    <row r="3" spans="1:20" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="51"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="51"/>
+    </row>
+    <row r="4" spans="1:20" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="61" t="s">
+      <c r="C5" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="94"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="61" t="s">
+      <c r="C6" s="93">
+        <v>1001</v>
+      </c>
+      <c r="D6" s="94"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="61" t="s">
+      <c r="C7" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="94"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" spans="1:20" ht="14" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="24"/>
+      <c r="C8" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="111">
+        <v>43613</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="22"/>
       <c r="O11" s="3"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:20" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="72" t="s">
+    <row r="12" spans="1:20" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
+      <c r="B12" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="89"/>
+      <c r="E12" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="72" t="s">
+      <c r="F12" s="89"/>
+      <c r="G12" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="27"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="25"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="64" t="s">
+    <row r="13" spans="1:20" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="52"/>
+      <c r="B13" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="27"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="112">
+        <v>43619</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="25"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="1:20" s="4" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="95"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="27"/>
+    <row r="14" spans="1:20" s="4" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="52"/>
+      <c r="B14" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="85"/>
+      <c r="E14" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="92"/>
+      <c r="G14" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="113">
+        <v>43619</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="25"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="27"/>
+    <row r="15" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="52"/>
+      <c r="B15" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="81"/>
+      <c r="G15" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="112">
+        <v>43619</v>
+      </c>
+      <c r="I15" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="25"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="1:20" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="27"/>
+    <row r="16" spans="1:20" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="52"/>
+      <c r="B16" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="25"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="27"/>
+    <row r="17" spans="1:21" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="52"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="25"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="71" t="s">
+    <row r="18" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="53"/>
+      <c r="B18" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="52"/>
+      <c r="B19" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="87" t="s">
+      <c r="D19" s="87"/>
+      <c r="E19" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="87" t="s">
+      <c r="F19" s="87"/>
+      <c r="G19" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="88"/>
-      <c r="I19" s="71" t="s">
+      <c r="H19" s="87"/>
+      <c r="I19" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="90"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+    <row r="20" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
+      <c r="B20" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="80"/>
+      <c r="G20" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="80"/>
+      <c r="I20" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="63" t="s">
+    <row r="21" spans="1:21" s="4" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="52"/>
+      <c r="B21" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="79"/>
+      <c r="E21" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="83"/>
+      <c r="G21" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="86"/>
-      <c r="G21" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="92"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="1:21" s="4" customFormat="1" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="86"/>
-      <c r="G22" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="92"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+    <row r="22" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="52"/>
+      <c r="B22" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="79"/>
+      <c r="E22" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="83"/>
+      <c r="G22" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="83"/>
+      <c r="I22" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="1:21" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+    <row r="23" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="52"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="1:21" ht="14" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" spans="1:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="61" t="s">
+    <row r="24" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="22"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="22"/>
+      <c r="B25" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" spans="1:21" ht="14" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="61" t="s">
+      <c r="C25" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+      <c r="B26" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="24"/>
-    </row>
-    <row r="27" spans="1:21" ht="14" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="1:21" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" spans="1:21" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="1:21" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" spans="1:21" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" spans="1:21" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
+      <c r="C26" s="114">
+        <v>43613</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="22"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:21" ht="12" x14ac:dyDescent="0.2">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:21" ht="12" x14ac:dyDescent="0.2">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:21" ht="12" x14ac:dyDescent="0.2">
+      <c r="A30" s="22"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:21" ht="12" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:21" ht="12" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="G23:H23"/>
@@ -2596,26 +2624,8 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Não Iniciado, Em andamento, Concluído, Pendente"</formula1>
     </dataValidation>
@@ -2636,420 +2646,420 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="33" customWidth="1"/>
-    <col min="5" max="5" width="33.453125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="32.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" style="33" customWidth="1"/>
-    <col min="8" max="9" width="20.81640625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="21.453125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="20.54296875" style="33" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" style="33" customWidth="1"/>
-    <col min="13" max="13" width="20.54296875" style="33" customWidth="1"/>
-    <col min="14" max="14" width="15.453125" style="33" customWidth="1"/>
-    <col min="15" max="15" width="32.26953125" style="35" customWidth="1"/>
-    <col min="16" max="16" width="16.453125" style="33" customWidth="1"/>
-    <col min="17" max="16384" width="11.7265625" style="33"/>
+    <col min="1" max="1" width="21.7109375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="31" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="31" customWidth="1"/>
+    <col min="8" max="9" width="20.85546875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="31" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="31" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="31" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="31" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="32.28515625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="31" customWidth="1"/>
+    <col min="17" max="16384" width="11.7109375" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="34">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="35"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="35"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="115" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="115" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="37"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="37"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+    </row>
+    <row r="25" spans="1:20" s="41" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="43" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="36">
-        <v>43598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="37"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="37"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+    </row>
+    <row r="26" spans="1:20" s="41" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A26" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="39"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="107" t="s">
+      <c r="B26" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="41"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="E26" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+    </row>
+    <row r="27" spans="1:20" s="41" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+    </row>
+    <row r="28" spans="1:20" s="41" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A28" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="E28" s="43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-    </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47" t="s">
+      <c r="F28" s="44"/>
+      <c r="G28" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="47" t="s">
+      <c r="H28" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-    </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47" t="s">
+      <c r="I28" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+    </row>
+    <row r="29" spans="1:20" s="41" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A29" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-    </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47" t="s">
+      <c r="H29" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-    </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="45" t="s">
+      <c r="I29" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+    </row>
+    <row r="30" spans="1:20" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="40"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="50"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+    </row>
+    <row r="31" spans="1:20" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-    </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="45" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="50"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+    </row>
+    <row r="32" spans="1:20" s="41" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-    </row>
-    <row r="30" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="52"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-    </row>
-    <row r="31" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="50"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+    </row>
+    <row r="33" spans="1:20" s="41" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="52"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-    </row>
-    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="52"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-    </row>
-    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="23"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-    </row>
-    <row r="34" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="49" t="s">
+      <c r="B33" s="40"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="21"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+    </row>
+    <row r="34" spans="1:20" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="B36" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="51">
+      <c r="B37" s="49">
         <v>43172</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3074,377 +3084,378 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D23" sqref="D23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7265625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="66.26953125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="66.28515625" style="10" customWidth="1"/>
     <col min="5" max="5" width="28" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="11.7265625" style="7"/>
+    <col min="7" max="16384" width="11.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-    </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:6" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="66"/>
+      <c r="B2" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
+    </row>
+    <row r="3" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="18">
         <v>1</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="18">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="18">
+        <v>3</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="18">
+        <v>4</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="18">
+        <v>5</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
-        <v>2</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="18">
+        <v>6</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="E11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="18">
+        <v>7</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="D12" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
-        <v>3</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="18">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
-        <v>4</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
-        <v>5</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="19">
-        <v>6</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="19">
-        <v>7</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="19">
-        <v>8</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="115" t="s">
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="115"/>
-      <c r="C24" s="16" t="s">
+      <c r="D23" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="109"/>
+      <c r="C24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="13"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="13"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="13"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="13"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="13"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="13"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
